--- a/config_debug/gift_czlb_config.xlsx
+++ b/config_debug/gift_czlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="base" sheetId="5" r:id="rId1"/>
     <sheet name="help_info" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id|序列</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -87,6 +87,62 @@
   </si>
   <si>
     <t>10263,10264,10265,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_name|</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_img|礼包icon图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*1","最高10万金币","60万金币","锁定*2","最高12万金币","60万金币","锁定*3","最高15万金币",</t>
+  </si>
+  <si>
+    <t>"480万金币","锁定*2","最高80万金币","480万金币","锁定*3","最高96万金币","480万金币","锁定*4","最高120万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","锁定*3","最高170万金币","980万金币","锁定*4","最高200万金币","980万金币","锁定*5","最高248万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*4","最高330万金币","1980万金币","锁定*5","最高400万金币","1980万金币","锁定*6","最高500万金币",</t>
+  </si>
+  <si>
+    <t>"1980万","4","最高330万","1980万","5","最高400万","1980万","6","最高500万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","3","最高170万","980万","4","最高200万","980万","5","最高248万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","2","最高80万","480万","3","最高96万","480万","4","最高120万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","1","最高10万","60万","2","最高12万","60万","3","最高15万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","3dby_btn_sd","fkfl_btn_bx","ty_icon_jb_15y","3dby_btn_sd","fkfl_btn_bx2","ty_icon_jb_30y","3dby_btn_sd","fkfl_btn_bx3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","3dby_btn_sd","fkfl_btn_bx","ty_icon_jb_998y","3dby_btn_sd","fkfl_btn_bx2","ty_icon_jb_2498y","3dby_btn_sd","fkfl_btn_bx3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_sd","fkfl_btn_bx","ty_icon_jb_198y","3dby_btn_sd","fkfl_btn_bx2","ty_icon_jb_498y","3dby_btn_sd","fkfl_btn_bx3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_sd","fkfl_btn_bx","ty_icon_jb_98y","3dby_btn_sd","fkfl_btn_bx2","ty_icon_jb_198y","3dby_btn_sd","fkfl_btn_bx3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,10 +556,10 @@
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" customWidth="1"/>
     <col min="9" max="9" width="21.75" customWidth="1"/>
     <col min="10" max="11" width="24.25" customWidth="1"/>
@@ -524,6 +580,15 @@
       <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
@@ -538,8 +603,15 @@
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
@@ -554,8 +626,15 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -570,8 +649,15 @@
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
@@ -586,8 +672,15 @@
       <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
